--- a/data/testing.xlsx
+++ b/data/testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14745" windowHeight="4005"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>w</t>
   </si>
@@ -70,14 +70,20 @@
   <si>
     <t>from 30 upwards suggests the person is obese</t>
   </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -104,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +129,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,11 +150,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -144,10 +177,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -444,13 +479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A8:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -469,11 +506,11 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97.200000000000017</v>
+        <v>59.94</v>
       </c>
       <c r="C2" s="1">
         <f>B2*(1/0.45359237)</f>
-        <v>214.28931884370104</v>
+        <v>132.14507995361561</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -500,11 +537,11 @@
       </c>
       <c r="B4" s="4">
         <f>B2/(B3*B3)</f>
-        <v>30.000000000000004</v>
+        <v>18.499999999999996</v>
       </c>
       <c r="C4" s="5">
         <f>(C2*703)/(C3*C3)</f>
-        <v>29.99703103471516</v>
+        <v>18.498169138074342</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -513,18 +550,38 @@
     <row r="5" spans="1:6">
       <c r="B5" s="6">
         <f>ROUND(B4,2)</f>
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="C5" s="6">
         <f>ROUND(C4,2)</f>
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9">
+        <f>B8*C8*C8</f>
+        <v>129.6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7"/>
